--- a/data/income_statement/3digits/total/152_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/152_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>152-Manufacture of footwear</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>152-Manufacture of footwear</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2150327.09026</v>
@@ -956,37 +862,42 @@
         <v>2558233.52525</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3302979.97812</v>
+        <v>3303695.88682</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>4027093.4201</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4396770.798140001</v>
+        <v>4400026.180849999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4889330.57587</v>
+        <v>4897969.98967</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5839906.14283</v>
+        <v>5872074.65554</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7033413.38329</v>
+        <v>7069943.69276</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>8549033.891880002</v>
+        <v>8549033.89188</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>10235426.73622</v>
+        <v>10266741.0582</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>11927280.37584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12134360.14354</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>13060739.901</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1895437.05794</v>
@@ -995,37 +906,42 @@
         <v>2217669.84959</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2913451.50825</v>
+        <v>2914167.41695</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>3538734.86351</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3865397.54516</v>
+        <v>3868646.57653</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4244532.096980001</v>
+        <v>4253140.31857</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5108610.765459999</v>
+        <v>5135520.67267</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6283835.581049999</v>
+        <v>6320274.590009999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>7485671.76611</v>
+        <v>7485671.766109999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8492430.83757</v>
+        <v>8513013.706799999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>9859398.294540001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10036056.54085</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>10557614.627</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>241294.09255</v>
@@ -1040,31 +956,36 @@
         <v>463926.17016</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>504106.3332999999</v>
+        <v>504106.3333</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>612786.75588</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>665497.2238799999</v>
+        <v>670525.91241</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>684678.1893900001</v>
+        <v>684747.56839</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>979127.35865</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1641741.49761</v>
+        <v>1652385.41913</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1929942.13577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1959281.00537</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2320672.413</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>13595.93977</v>
@@ -1079,76 +1000,86 @@
         <v>24432.38643</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>27266.91968</v>
+        <v>27273.27102</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>32011.72301</v>
+        <v>32042.91522</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>65798.15349</v>
+        <v>66028.07046</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>64899.61284999999</v>
+        <v>64921.53436</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>84234.76712</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>101254.40104</v>
+        <v>101341.93227</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>137939.94553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>139022.59732</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>182452.861</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>42341.1736</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>49434.79404</v>
+        <v>49434.79404000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>63321.29555999998</v>
+        <v>63321.29555999999</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>71634.87733</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>75180.02425999999</v>
+        <v>75194.79066</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>87721.65517</v>
+        <v>87751.09617</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>142552.96207</v>
+        <v>143921.90882</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>166396.71974</v>
+        <v>166640.02089</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>197903.72349</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>278529.38157</v>
+        <v>279124.21913</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>257052.79103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>261282.20575</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>273586.832</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>34243.32108</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>41531.34548999999</v>
+        <v>41531.34549</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>53702.37961</v>
@@ -1157,31 +1088,36 @@
         <v>59293.25465</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>62500.73507</v>
+        <v>62515.50146999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>76903.9544</v>
+        <v>76933.39540000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>114731.69114</v>
+        <v>116076.27773</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>144303.62842</v>
+        <v>144546.92957</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>161912.19451</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>228896.24381</v>
+        <v>228986.75833</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>216979.6133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>220817.67978</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>244357.605</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>7028.192619999999</v>
@@ -1190,7 +1126,7 @@
         <v>6605.130450000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>8155.997479999998</v>
+        <v>8155.99748</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>10997.46872</v>
@@ -1202,7 +1138,7 @@
         <v>9495.27908</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>15198.74535</v>
+        <v>15214.66356</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>19426.3757</v>
@@ -1214,13 +1150,18 @@
         <v>38768.36185</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>23261.35613</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>23608.25791</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>20224.404</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1069.6599</v>
@@ -1241,25 +1182,30 @@
         <v>1322.42169</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>12622.52558</v>
+        <v>12630.96753</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>2666.71562</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>8491.203030000001</v>
+        <v>8491.203029999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>10864.77591</v>
+        <v>11369.09895</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>16811.8216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16856.26806</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>9004.823</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2107985.91666</v>
@@ -1268,37 +1214,42 @@
         <v>2508798.73121</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3239658.68256</v>
+        <v>3240374.59126</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3955458.54277</v>
+        <v>3955458.542770001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4321590.77388</v>
+        <v>4324831.390190001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4801608.9207</v>
+        <v>4810218.8935</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5697353.18076</v>
+        <v>5728152.74672</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6867016.663550001</v>
+        <v>6903303.671869999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>8351130.168389999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>9956897.35465</v>
+        <v>9987616.83907</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>11670227.58481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11873077.93779</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>12787153.069</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1749954.68678</v>
@@ -1307,37 +1258,42 @@
         <v>2099696.25985</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2763912.61262</v>
+        <v>2763980.43275</v>
       </c>
       <c r="F14" s="47" t="n">
         <v>3427169.41406</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3714481.08222</v>
+        <v>3717527.571250001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4125654.11105</v>
+        <v>4133731.42706</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4878971.70608</v>
+        <v>4904188.68074</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5914507.12827</v>
+        <v>5940852.249890001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7218529.13214</v>
+        <v>7218529.132139999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8663859.099409999</v>
+        <v>8691736.912959998</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>10025576.0443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10192093.86676</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10978301.892</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1407077.03363</v>
@@ -1349,34 +1305,39 @@
         <v>2277573.69578</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2837895.258609999</v>
+        <v>2837895.25861</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3149559.70787</v>
+        <v>3152438.20188</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3504849.23828</v>
+        <v>3512600.50529</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4091916.98064</v>
+        <v>4116141.94396</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4949512.23369</v>
+        <v>4974597.20167</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>6093685.372040001</v>
+        <v>6093685.37204</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7263507.855089999</v>
+        <v>7276656.867319999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>8363927.605629999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>8470589.81725</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>9164237.448999999</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>320550.69179</v>
@@ -1385,37 +1346,42 @@
         <v>352677.92219</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>456346.4315299999</v>
+        <v>456346.4315300001</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>548855.92001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>517677.2935499999</v>
+        <v>517845.2885699999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>566806.9121900001</v>
+        <v>567132.9611900001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>745094.66249</v>
+        <v>746086.67383</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>902085.56903</v>
+        <v>902691.88978</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1043037.88355</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1305890.58627</v>
+        <v>1319724.75926</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1532221.71121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1584299.735</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1649748.858</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>14107.7807</v>
@@ -1424,7 +1390,7 @@
         <v>15563.59212</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>21587.66931</v>
+        <v>21655.48944</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>26091.20398</v>
@@ -1442,19 +1408,24 @@
         <v>33916.97963</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>57434.11212000001</v>
+        <v>57434.11212</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>65125.98431</v>
+        <v>66020.61264000001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>74349.15968000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>82069.66159</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>97828.837</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>8219.18066</v>
@@ -1478,7 +1449,7 @@
         <v>16548.47502</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>28992.34592</v>
+        <v>29646.17881</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>24371.76443</v>
@@ -1487,13 +1458,18 @@
         <v>29334.67374</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>55077.56778</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>55134.65292</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>66486.74800000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>358031.22988</v>
@@ -1502,37 +1478,42 @@
         <v>409102.47136</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>475746.06994</v>
+        <v>476394.15851</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>528289.12871</v>
+        <v>528289.1287100001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>607109.6916600001</v>
+        <v>607303.81894</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>675954.80965</v>
+        <v>676487.4664400001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>818381.47468</v>
+        <v>823964.0659800001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>952509.53528</v>
+        <v>962451.42198</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1132601.03625</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1293038.25524</v>
+        <v>1295879.92611</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1644651.54051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1680984.07103</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1808851.177</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>229766.8917</v>
@@ -1541,37 +1522,42 @@
         <v>255299.19947</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>309831.58708</v>
+        <v>310273.0151</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>349792.20548</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>394352.4262</v>
+        <v>394530.60947</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>432561.54349</v>
+        <v>432916.07925</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>500805.4620300001</v>
+        <v>505886.10912</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>603610.0590199999</v>
+        <v>605694.7459600001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>691759.44809</v>
+        <v>691759.4480900001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>833585.6706899998</v>
+        <v>836044.0944399999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>960877.18311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1001492.9846</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1030883.863</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>576.24787</v>
@@ -1592,7 +1578,7 @@
         <v>1159.45323</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1331.46752</v>
+        <v>2248.76474</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>1658.64196</v>
@@ -1604,16 +1590,21 @@
         <v>4396.62635</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3954.37358</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3967.60952</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>4486.131</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>92292.47417</v>
+        <v>92292.47416999999</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>97475.19310999999</v>
@@ -1625,31 +1616,36 @@
         <v>134766.81537</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>158820.75709</v>
+        <v>158854.22041</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>181012.85316</v>
+        <v>181092.77273</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>209404.92515</v>
+        <v>210052.71349</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>251513.48158</v>
+        <v>252794.92515</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>304727.80249</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>358085.36582</v>
+        <v>358344.03074</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>424873.2504500001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>444911.6583700001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>463201.344</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>136898.16966</v>
@@ -1658,37 +1654,42 @@
         <v>155880.92916</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>190791.53358</v>
+        <v>191232.9616</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>212399.37571</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>234388.87333</v>
+        <v>234533.59328</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>250389.2371</v>
+        <v>250663.85329</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>290069.06936</v>
+        <v>293584.63089</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>350437.93548</v>
+        <v>351241.17885</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>384309.39113</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>471103.67852</v>
+        <v>473303.43735</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>532049.55908</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>552613.7167100001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>563196.388</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>128264.33818</v>
@@ -1697,76 +1698,86 @@
         <v>153803.27189</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>165914.48286</v>
+        <v>166121.14341</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>178496.92323</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>212757.26546</v>
+        <v>212773.20947</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>243393.26616</v>
+        <v>243571.38719</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>317576.01265</v>
+        <v>318077.95686</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>348899.47626</v>
+        <v>356756.67602</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>440841.58816</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>459452.58455</v>
+        <v>459835.83167</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>683774.3574</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>679491.0864299999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>777967.314</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>47305.93670999999</v>
+        <v>47305.93671</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>46680.00302</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>61381.67625999999</v>
+        <v>61381.67626</v>
       </c>
       <c r="F25" s="47" t="n">
         <v>60091.35311</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>91750.52608</v>
+        <v>91771.77059999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>96443.04835</v>
+        <v>96500.54281</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>133285.82409</v>
+        <v>133819.22155</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>140807.43762</v>
+        <v>141047.96998</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>203810.44343</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>481924.2559099999</v>
+        <v>482127.5353</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>278132.25932</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>281846.84021</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>405032.862</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>15.3742</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>6745.72999</v>
@@ -1856,16 +1877,16 @@
         <v>5455.290359999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>8049.733069999999</v>
+        <v>8049.73307</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>6750.367679999999</v>
+        <v>6771.6122</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>8747.569310000001</v>
+        <v>8805.063769999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>12030.78571</v>
+        <v>12166.80021</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>11012.35974</v>
@@ -1874,16 +1895,21 @@
         <v>17615.95438</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>40645.94953</v>
+        <v>40656.39659</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>41970.69658</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>42112.31565</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>36744.625</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>143.73708</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>55.43962999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2771.628</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1324.78353</v>
@@ -1946,7 +1977,7 @@
         <v>2073.14931</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3881.725730000001</v>
+        <v>3881.72573</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>4401.21344</v>
@@ -1955,13 +1986,18 @@
         <v>2247.40201</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1851.83826</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1852.45952</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1811.935</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>224.59993</v>
@@ -1976,10 +2012,10 @@
         <v>150.92948</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>69.81420999999999</v>
+        <v>69.81421</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>335.51856</v>
+        <v>335.5185599999999</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>67.75141000000001</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>953.2839299999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>997.918</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>27293.84367</v>
@@ -2015,31 +2056,36 @@
         <v>26646.40711</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>49945.09885</v>
+        <v>49945.09884999999</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>49969.02361</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>91711.88932</v>
+        <v>92095.13728</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>70543.41193999999</v>
+        <v>70583.84404000001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>114069.26875</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>343996.87263</v>
+        <v>344061.19201</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>172967.17112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>175257.9695</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>290944.94</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>35.35847999999999</v>
@@ -2063,7 +2109,7 @@
         <v>2805.7807</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>2091.62511</v>
+        <v>2291.72537</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>4187.48721</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>8919.330830000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>7839.464</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>6.56319</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>44.836</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>11515.94664</v>
@@ -2138,7 +2194,7 @@
         <v>31735.4856</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>22334.0294</v>
+        <v>22348.1644</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>53030.14664</v>
@@ -2147,16 +2203,21 @@
         <v>62980.76867999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>83804.73514</v>
+        <v>83933.24809000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>51414.49897</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>52696.04115</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>63877.516</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>41004.40252</v>
@@ -2165,37 +2226,42 @@
         <v>30509.44309</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>48950.88584</v>
+        <v>48951.0099</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>35548.1995</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>79693.84722</v>
+        <v>79693.89481999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>77370.27843000001</v>
+        <v>77386.63442</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>125680.4192</v>
+        <v>126668.69668</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>113866.61384</v>
+        <v>113958.89035</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>168083.48944</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>452019.89468</v>
+        <v>452442.95741</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>302295.71613</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>304635.64443</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>316164.426</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>259.31669</v>
@@ -2204,7 +2270,7 @@
         <v>196.85422</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>299.19125</v>
+        <v>299.22125</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>746.96327</v>
@@ -2213,10 +2279,10 @@
         <v>626.93902</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>479.16302</v>
+        <v>493.48983</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>611.84036</v>
+        <v>611.99612</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>669.0311400000001</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>1725.44451</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>3439.906</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>7344.843589999999</v>
@@ -2255,7 +2326,7 @@
         <v>12491.13804</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>11353.44365</v>
+        <v>11765.08343</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>11794.14302</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>87819.5043</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>47412.665</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>21.57314</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>604.34626</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2500.655</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>28949.52379</v>
@@ -2327,31 +2408,36 @@
         <v>22881.10363</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>63989.65843000001</v>
+        <v>63989.70603</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>56008.50950999999</v>
+        <v>56010.53869</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>104405.45156</v>
+        <v>104981.2598</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>91957.76302000001</v>
+        <v>91999.11231999999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>134266.28614</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>394302.31771</v>
+        <v>394714.90659</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>184030.09066</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>186352.81122</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>235793.144</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>89.90344</v>
@@ -2375,7 +2461,7 @@
         <v>3001.65274</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>2483.09289</v>
+        <v>2526.4824</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>4272.17325</v>
@@ -2384,13 +2470,18 @@
         <v>10639.45412</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>9172.629239999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>9172.62924</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>9166.726000000001</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>1.16275</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0.27969</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>145.833</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>4338.07912</v>
@@ -2438,7 +2534,7 @@
         <v>3388.44502</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3441.34789</v>
+        <v>3441.44195</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>3298.33675</v>
@@ -2447,34 +2543,39 @@
         <v>5815.37176</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5888.37544</v>
+        <v>5888.375440000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>6307.69436</v>
+        <v>6308.36806</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>6916.118890000001</v>
+        <v>6923.65659</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>15613.91029</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>19313.19015</v>
+        <v>19323.664</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>18943.42147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>18960.62921</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>17705.497</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>43734.43315</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>34835.82226000001</v>
+        <v>34835.82226</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>48804.63456000001</v>
@@ -2489,25 +2590,30 @@
         <v>78571.86267</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>110805.50534</v>
+        <v>110929.91132</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>134320.87556</v>
+        <v>135821.98958</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>176021.13882</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>296447.75593</v>
+        <v>296912.34063</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>270050.9628</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>273494.61184</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>280551.888</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>42448.78788</v>
@@ -2519,40 +2625,45 @@
         <v>46520.32023</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>57452.30020999999</v>
+        <v>57452.30021</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>61240.27808999999</v>
+        <v>61240.27809000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>69224.02185999998</v>
+        <v>69224.02185999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>99922.13746000001</v>
+        <v>100046.54344</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>124713.93322</v>
+        <v>124217.82941</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>168784.59413</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>281630.88068</v>
+        <v>282095.46538</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>250459.96078</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>253903.60982</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>262568.574</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1285.64527</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>948.0156099999999</v>
+        <v>948.01561</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>2284.31433</v>
@@ -2564,13 +2675,13 @@
         <v>2623.68078</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>9347.840809999998</v>
+        <v>9347.84081</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>10883.36788</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>9606.94234</v>
+        <v>11604.16017</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>7236.544690000001</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>19591.00202</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>17983.314</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>90831.43921999999</v>
+        <v>90831.43922</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>135138.00956</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>129540.63872</v>
+        <v>129747.17521</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>142274.86631</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>160949.98545</v>
+        <v>160987.12638</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>183894.17341</v>
+        <v>184113.43291</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>214375.9122</v>
+        <v>214298.57041</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>241519.42448</v>
+        <v>248023.76607</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>300547.4033300001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>192909.18985</v>
+        <v>192608.06893</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>389559.9377899999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>383207.67037</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>586283.862</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>23282.85552</v>
@@ -2639,31 +2760,36 @@
         <v>13431.51931</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>19783.15311</v>
+        <v>19786.68572</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>39705.38941</v>
+        <v>39705.39112000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>41533.48264</v>
+        <v>41560.43814</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>43898.79188</v>
+        <v>44062.4091</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>47776.97434</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>84899.23673999999</v>
+        <v>85063.18972999998</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>64345.65143999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>64886.53447</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>73952.633</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>327.69543</v>
@@ -2681,10 +2807,10 @@
         <v>102.90471</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>79.16569</v>
+        <v>79.16568999999998</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>54.58881</v>
+        <v>55.43031</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>363.62855</v>
@@ -2696,13 +2822,18 @@
         <v>298.0880799999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>459.2035500000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>502.70862</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>635.394</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>22955.16009</v>
@@ -2717,31 +2848,36 @@
         <v>13330.93354</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>19680.2484</v>
+        <v>19683.78101</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>39626.22372</v>
+        <v>39626.22543</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>41478.89383</v>
+        <v>41505.00783</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>43535.16333</v>
+        <v>43698.78055</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>47588.79329</v>
+        <v>47588.79329000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>84601.14865999999</v>
+        <v>84765.10165</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>63886.44789</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>64383.82584999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>73317.239</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>23423.45453</v>
@@ -2750,7 +2886,7 @@
         <v>13627.63967</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>71625.18136</v>
+        <v>71632.85241000001</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>16922.10159</v>
@@ -2759,28 +2895,33 @@
         <v>14257.8484</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>70318.54277000001</v>
+        <v>70319.14965000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>29432.88911</v>
+        <v>29475.14521</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>103859.76858</v>
+        <v>103789.30501</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>42507.65027</v>
+        <v>42507.65027000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>120342.70651</v>
+        <v>121538.63454</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>69379.68978</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>70023.17208</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>47247.046</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>962.34057</v>
@@ -2810,16 +2951,21 @@
         <v>3650.46734</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>5579.51862</v>
+        <v>5767.870309999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>7092.207109999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>7221.0514</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>5480.579</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>316.75321</v>
@@ -2828,37 +2974,42 @@
         <v>315.82035</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2487.62083</v>
+        <v>2487.620830000001</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>604.52146</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>744.3400899999999</v>
+        <v>744.34009</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>521.61049</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1450.48426</v>
+        <v>1451.23426</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>657.3346100000001</v>
+        <v>657.33461</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>1483.20794</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1450.1237</v>
+        <v>1460.66808</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>12544.68069</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>12648.85425</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1025.644</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>22144.36075</v>
@@ -2867,7 +3018,7 @@
         <v>12745.63313</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>68835.734</v>
+        <v>68843.40505</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>15752.35139</v>
@@ -2876,28 +3027,33 @@
         <v>12571.56055</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>68163.22925</v>
+        <v>68163.83613</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>26150.36823</v>
+        <v>26191.87433</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>101108.3899</v>
+        <v>101037.92633</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>37373.97499</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>113313.06419</v>
+        <v>114310.09615</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>49742.80198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>50153.26643000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>40740.823</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>90690.84021000001</v>
@@ -2906,37 +3062,42 @@
         <v>135239.28543</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>80892.46592</v>
+        <v>81091.33136</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>138784.28403</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>166475.29016</v>
+        <v>166515.9637</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>153281.02005</v>
+        <v>153499.67438</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>226476.50573</v>
+        <v>226383.86334</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>181558.44778</v>
+        <v>188296.87016</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>305816.7274</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>157465.72008</v>
+        <v>156132.62412</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>384525.89945</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>378071.03276</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>612989.449</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>21951.30391</v>
@@ -2951,67 +3112,75 @@
         <v>32317.50859</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>33910.51922</v>
+        <v>33921.51409</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>39601.37561</v>
+        <v>39635.02772</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>47483.94318</v>
+        <v>47803.75546</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>52780.5084</v>
+        <v>53651.21008999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>59616.87831</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>70554.04983</v>
+        <v>70794.98772</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>85961.62514</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>87918.04586000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>133002.729</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>68739.53629999999</v>
+        <v>68739.53630000001</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>108403.70304</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>52749.99103</v>
+        <v>52948.85647</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>106466.77544</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>132564.77094</v>
+        <v>132594.44961</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>113679.64444</v>
+        <v>113864.64666</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>178992.56255</v>
+        <v>178580.10788</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>128777.93938</v>
+        <v>134645.66007</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>246199.84909</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>86911.67025</v>
+        <v>85337.6364</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>298564.27431</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>290152.9869</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>479986.72</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1269</v>
@@ -3038,34 +3210,37 @@
         <v>1261</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="F59" s="35" t="n">
         <v>1309</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1400</v>
+        <v>1409</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1466</v>
+        <v>1474</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1540</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1474</v>
+        <v>1629</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1795</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>